--- a/epitech-modules/data/Epitech Modules.xlsx/content.xlsx
+++ b/epitech-modules/data/Epitech Modules.xlsx/content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Personal\random\data\Epitech Modules.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Personal\random\epitech-modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342CC96C-1F99-42DE-8C2A-B96F798F9BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992AAE61-BC83-49F4-95E8-91A198C84858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60D7B1DA-3E10-411E-A53E-1CC60016F869}"/>
   </bookViews>
@@ -38,6 +38,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
@@ -134,20 +156,27 @@
     <t>{{ toC hasProgressiveCredits }}</t>
   </si>
   <si>
-    <t>Seats</t>
-  </si>
-  <si>
-    <t>{{ seats }}</t>
+    <t>Choosen</t>
+  </si>
+  <si>
+    <t>Credits with choosen modules:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -204,6 +233,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,39 +243,49 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -260,31 +300,13 @@
       </extLst>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -296,7 +318,13 @@
       </extLst>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -308,7 +336,6 @@
       </extLst>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -318,6 +345,9 @@
           <xfpb:DXFComplement i="0"/>
         </ext>
       </extLst>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -364,20 +394,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6303C07A-960C-4DFD-B7D5-E029EA2F0F46}" name="Tableau1" displayName="Tableau1" ref="A7:N9" totalsRowCount="1" dataDxfId="28">
   <autoFilter ref="A7:N8" xr:uid="{D26F5A75-FE85-494B-8332-F8F5FC06450E}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{A0906106-458B-4114-9AEA-ADCAD81EDE7B}" name="Module" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{63AB1B13-D226-4459-A5A1-A58DC2270CD3}" name="In Team" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{95E78C62-4558-420C-83DA-389D79E14C67}" name="Team Size" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{05FC7552-AC62-434C-B675-8A8DB993DD5C}" name="In Remote" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{39C0B7DB-C3CD-43CF-A659-1523AF952117}" name="Credits" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{5C408DCB-AE53-4F3F-9807-23ED105D4B03}" name="Progressive" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{705BE21A-48B7-4E15-8452-73360A29AAD1}" name="Seats" dataDxfId="14" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{8E10A061-07E6-4239-9A12-18D01AB1D710}" name="Module/Register start" dataDxfId="21" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{1C051091-5C0D-47E0-9A5E-46D65B905792}" name="Module end" dataDxfId="20" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{D2C14BCB-575F-4051-A0DC-9003849BE0DA}" name="Register end" dataDxfId="19" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{B4BCF7BB-39D9-4366-942F-6557B1F99128}" name="Project Title" dataDxfId="18" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{1EDAB214-8D64-439D-BF5E-B376DC9DE58D}" name="Project start" dataDxfId="17" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{E0C1C683-0EF3-4CC6-8378-5EEE1F305132}" name="Project end" dataDxfId="16" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{3E759C3F-3BFF-433B-B1BE-51BEBBF0CB1F}" name="Link" dataDxfId="15" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A0906106-458B-4114-9AEA-ADCAD81EDE7B}" name="Module" totalsRowLabel="Total" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{CCCA8EB1-75AA-4951-BEA6-D2E4F94FEAA7}" name="Choosen" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{63AB1B13-D226-4459-A5A1-A58DC2270CD3}" name="In Team" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{95E78C62-4558-420C-83DA-389D79E14C67}" name="Team Size" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{05FC7552-AC62-434C-B675-8A8DB993DD5C}" name="In Remote" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{39C0B7DB-C3CD-43CF-A659-1523AF952117}" name="Credits" totalsRowFunction="count" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{5C408DCB-AE53-4F3F-9807-23ED105D4B03}" name="Progressive" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{8E10A061-07E6-4239-9A12-18D01AB1D710}" name="Module/Register start" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{1C051091-5C0D-47E0-9A5E-46D65B905792}" name="Module end" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{D2C14BCB-575F-4051-A0DC-9003849BE0DA}" name="Register end" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B4BCF7BB-39D9-4366-942F-6557B1F99128}" name="Project Title" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EDAB214-8D64-439D-BF5E-B376DC9DE58D}" name="Project start" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{E0C1C683-0EF3-4CC6-8378-5EEE1F305132}" name="Project end" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{3E759C3F-3BFF-433B-B1BE-51BEBBF0CB1F}" name="Link" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,15 +734,15 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="10" width="25.7109375" customWidth="1"/>
     <col min="11" max="11" width="60.7109375" customWidth="1"/>
     <col min="12" max="13" width="25.7109375" customWidth="1"/>
@@ -723,7 +753,7 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -731,11 +761,21 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="e" cm="1">
+        <f t="array" ref="C4">SUMPRODUCT(Tableau1[Credits]*(Tableau1[Choosen]=TRUE))</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -743,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -786,23 +826,23 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>21</v>
@@ -833,11 +873,11 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <f>SUBTOTAL(103,Tableau1[Credits])</f>
         <v>1</v>
       </c>
-      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
